--- a/BancoEstadoBodega/Upload/LibroDiario.xlsx
+++ b/BancoEstadoBodega/Upload/LibroDiario.xlsx
@@ -5,12 +5,138 @@
   <bookViews>
     <workbookView tabRatio="600"/>
   </bookViews>
-  <sheets/>
+  <sheets>
+    <sheet name="Promomas" sheetId="1" r:id="rId3"/>
+  </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+  <si>
+    <t xml:space="preserve">Promomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03-02-2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libro De Ventas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desde: 01-02-2017 0:00:00 Hasta: 28-02-2017 0:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encomienda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empaque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Origen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forma de despacho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camioneta/Moto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valija Interna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Destino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comuna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha Solicitud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha Entrega</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seguimiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clasificacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descripcion de la entrega</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area Mandante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usuario Mandante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usuario Receptor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bultos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste Despacho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Servicio Mecanizado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meca X Bultos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paquete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pentacrom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camioneta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tttg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gdg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02-02-2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fgdg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Despacho Diario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fgdfhdhdg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marketing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gfhf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fghfh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESTANDAR</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -58,8 +184,193 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellXfs>
 </styleSheet>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="13.86328125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.59765625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="26.265625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.59765625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.86328125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.1328125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.6640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.46484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="17.73046875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="22.265625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="33.19921875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="21.46484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="25.19921875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="23.59765625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.1328125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="20.265625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="21.73046875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="27.33203125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="19.73046875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8"/>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" t="s">
+        <v>16</v>
+      </c>
+      <c r="M19" t="s">
+        <v>17</v>
+      </c>
+      <c r="N19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O19" t="s">
+        <v>19</v>
+      </c>
+      <c r="P19" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>21</v>
+      </c>
+      <c r="R19" t="s">
+        <v>22</v>
+      </c>
+      <c r="S19" t="s">
+        <v>23</v>
+      </c>
+      <c r="T19" t="s">
+        <v>24</v>
+      </c>
+      <c r="U19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" t="s">
+        <v>2</v>
+      </c>
+      <c r="K21" t="s">
+        <v>34</v>
+      </c>
+      <c r="L21" t="s">
+        <v>35</v>
+      </c>
+      <c r="M21" t="s">
+        <v>36</v>
+      </c>
+      <c r="N21" t="s">
+        <v>37</v>
+      </c>
+      <c r="O21" t="s">
+        <v>38</v>
+      </c>
+      <c r="P21" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q21">
+        <v>4</v>
+      </c>
+      <c r="R21"/>
+      <c r="S21">
+        <v>6723</v>
+      </c>
+      <c r="T21" t="s">
+        <v>40</v>
+      </c>
+      <c r="U21">
+        <v>2328</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/BancoEstadoBodega/Upload/LibroDiario.xlsx
+++ b/BancoEstadoBodega/Upload/LibroDiario.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="103">
   <si>
     <t xml:space="preserve">Promomas</t>
   </si>
@@ -20,13 +20,13 @@
     <t xml:space="preserve">Fecha:</t>
   </si>
   <si>
-    <t xml:space="preserve">03-02-2017</t>
+    <t xml:space="preserve">03/02/2017</t>
   </si>
   <si>
     <t xml:space="preserve">Libro De Ventas</t>
   </si>
   <si>
-    <t xml:space="preserve">Desde: 01-02-2017 0:00:00 Hasta: 28-02-2017 0:00:00</t>
+    <t xml:space="preserve">Desde: 01/11/2016 0:00:00 Hasta: 30/11/2016 0:00:00</t>
   </si>
   <si>
     <t xml:space="preserve">Encomienda</t>
@@ -92,7 +92,7 @@
     <t xml:space="preserve">Meca X Bultos</t>
   </si>
   <si>
-    <t xml:space="preserve">Paquete</t>
+    <t xml:space="preserve">Sobre</t>
   </si>
   <si>
     <t xml:space="preserve">A</t>
@@ -107,34 +107,220 @@
     <t xml:space="preserve">No</t>
   </si>
   <si>
-    <t xml:space="preserve">tttg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gdg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02-02-2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fgdg</t>
+    <t xml:space="preserve">PLAZA BENJAMION GAMERO  799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUNTA ARENAS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">29/11/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/12/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63278193</t>
   </si>
   <si>
     <t xml:space="preserve">Despacho Diario</t>
   </si>
   <si>
-    <t xml:space="preserve">fgdfhdhdg</t>
+    <t xml:space="preserve">6 AFICHES  CONVENIO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convenios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRANLLIE ALVAREZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JORGE SOLIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESTANDAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63278192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 CAJAS DE LAPIZ PROMOCIONAL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">63278191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 BOLSAS DE CALUGA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">63278190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50  MINI COSTUREROS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">63278189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 LAPIZ GOMOSO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">63278188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 PENDRIVE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">63278187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 MANTEL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">63278186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 PENDON CONVENIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDRO DE VALDIVIA 957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VILLARICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30/11/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63278184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAND MOVIL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALEJANDRO UNDURRAGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63278183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 BOLSAS DE CALUGA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">63278182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 CAJAS D LAPIZ PROMOCIONA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63278181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 AFICHES DE CONVENIO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chilexpress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHACABUCO 2701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALPARAISO ALMENDRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2310400444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1RELOJ  ADIDAS RETIRADO POSTERIORMENTE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RODRIGO BRUNA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FERNANDO MONTECINOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONCHA Y TORO 96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUENTE ALTO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2310400234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 MINI STAND CONVENIO-1 PENDON -75 AFICHES (15 AFICHES POR TEMA) 1 SILLA PLEGABLE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARIA TERESA ALVAREZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AV. J.M. CARRERA 5110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAN MIGUEL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARIO LORCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARTURO PRAT 621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAN BERNARDO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUIS DE GEORGIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AV. MATTA 950</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANTIAGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOSE LUIS ABARCA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALAMEDA 1111 PISO 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANTIAGO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">29734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 BOLSAS DE CLAUGA-100 PATOS PASCUEROS -100 BOLSAS CHICAS</t>
   </si>
   <si>
     <t xml:space="preserve">Marketing</t>
   </si>
   <si>
-    <t xml:space="preserve">gfhf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fghfh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESTANDAR</t>
+    <t xml:space="preserve">MARIA PAULINA CESPEDES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VICIÑA MACKENNA 4102 LOCAL 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 PENDON-150 PATOS IMAN-5 AFICHES E CADA TEMA CONVENIO-4 CAJAS DE LAPIZ PROMOCIONAL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARIA ALEJANDRA  RODRIGUEZ IGLESIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALAMEDA 1111 PISO 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44 RETIRO DE CAMRA DEPORTIVA  TIPO GOPRO-  26 RETIRO DE RELOJES ADIDAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RICARDO HERRERA</t>
   </si>
 </sst>
 </file>
@@ -203,16 +389,16 @@
     <col min="4" max="4" width="26.265625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="23.59765625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="18.796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.86328125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.1328125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="43.59765625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="32.9296875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="20.6640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="19.46484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="17.73046875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="22.265625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="33.19921875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="124" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="14" max="14" width="21.46484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="25.19921875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="23.59765625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="25.46484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="51.73046875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="17" max="17" width="10.1328125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="18" max="18" width="20.265625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="19" max="19" width="21.73046875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
@@ -336,38 +522,1235 @@
         <v>33</v>
       </c>
       <c r="J21" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="K21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R21"/>
       <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21" t="s">
+        <v>41</v>
+      </c>
+      <c r="U21">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22" t="s">
+        <v>34</v>
+      </c>
+      <c r="K22" t="s">
+        <v>42</v>
+      </c>
+      <c r="L22" t="s">
+        <v>36</v>
+      </c>
+      <c r="M22" t="s">
+        <v>43</v>
+      </c>
+      <c r="N22" t="s">
+        <v>38</v>
+      </c>
+      <c r="O22" t="s">
+        <v>39</v>
+      </c>
+      <c r="P22" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22"/>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22" t="s">
+        <v>41</v>
+      </c>
+      <c r="U22">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23" t="s">
+        <v>34</v>
+      </c>
+      <c r="K23" t="s">
+        <v>44</v>
+      </c>
+      <c r="L23" t="s">
+        <v>36</v>
+      </c>
+      <c r="M23" t="s">
+        <v>45</v>
+      </c>
+      <c r="N23" t="s">
+        <v>38</v>
+      </c>
+      <c r="O23" t="s">
+        <v>39</v>
+      </c>
+      <c r="P23" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23"/>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23" t="s">
+        <v>41</v>
+      </c>
+      <c r="U23">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24" t="s">
+        <v>34</v>
+      </c>
+      <c r="K24" t="s">
+        <v>46</v>
+      </c>
+      <c r="L24" t="s">
+        <v>36</v>
+      </c>
+      <c r="M24" t="s">
+        <v>47</v>
+      </c>
+      <c r="N24" t="s">
+        <v>38</v>
+      </c>
+      <c r="O24" t="s">
+        <v>39</v>
+      </c>
+      <c r="P24" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24"/>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24" t="s">
+        <v>41</v>
+      </c>
+      <c r="U24">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" t="s">
+        <v>34</v>
+      </c>
+      <c r="K25" t="s">
+        <v>48</v>
+      </c>
+      <c r="L25" t="s">
+        <v>36</v>
+      </c>
+      <c r="M25" t="s">
+        <v>49</v>
+      </c>
+      <c r="N25" t="s">
+        <v>38</v>
+      </c>
+      <c r="O25" t="s">
+        <v>39</v>
+      </c>
+      <c r="P25" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25"/>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25" t="s">
+        <v>41</v>
+      </c>
+      <c r="U25">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J26" t="s">
+        <v>34</v>
+      </c>
+      <c r="K26" t="s">
+        <v>50</v>
+      </c>
+      <c r="L26" t="s">
+        <v>36</v>
+      </c>
+      <c r="M26" t="s">
+        <v>51</v>
+      </c>
+      <c r="N26" t="s">
+        <v>38</v>
+      </c>
+      <c r="O26" t="s">
+        <v>39</v>
+      </c>
+      <c r="P26" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26"/>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26" t="s">
+        <v>41</v>
+      </c>
+      <c r="U26">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I27" t="s">
+        <v>33</v>
+      </c>
+      <c r="J27" t="s">
+        <v>34</v>
+      </c>
+      <c r="K27" t="s">
+        <v>52</v>
+      </c>
+      <c r="L27" t="s">
+        <v>36</v>
+      </c>
+      <c r="M27" t="s">
+        <v>53</v>
+      </c>
+      <c r="N27" t="s">
+        <v>38</v>
+      </c>
+      <c r="O27" t="s">
+        <v>39</v>
+      </c>
+      <c r="P27" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27"/>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27" t="s">
+        <v>41</v>
+      </c>
+      <c r="U27">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28" t="s">
+        <v>33</v>
+      </c>
+      <c r="J28" t="s">
+        <v>34</v>
+      </c>
+      <c r="K28" t="s">
+        <v>54</v>
+      </c>
+      <c r="L28" t="s">
+        <v>36</v>
+      </c>
+      <c r="M28" t="s">
+        <v>55</v>
+      </c>
+      <c r="N28" t="s">
+        <v>38</v>
+      </c>
+      <c r="O28" t="s">
+        <v>39</v>
+      </c>
+      <c r="P28" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28"/>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U28">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" t="s">
+        <v>56</v>
+      </c>
+      <c r="H29" t="s">
+        <v>57</v>
+      </c>
+      <c r="I29" t="s">
+        <v>58</v>
+      </c>
+      <c r="J29" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" t="s">
+        <v>59</v>
+      </c>
+      <c r="L29" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" t="s">
+        <v>60</v>
+      </c>
+      <c r="N29" t="s">
+        <v>38</v>
+      </c>
+      <c r="O29" t="s">
+        <v>39</v>
+      </c>
+      <c r="P29" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29"/>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29" t="s">
+        <v>41</v>
+      </c>
+      <c r="U29">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" t="s">
+        <v>56</v>
+      </c>
+      <c r="H30" t="s">
+        <v>57</v>
+      </c>
+      <c r="I30" t="s">
+        <v>58</v>
+      </c>
+      <c r="J30" t="s">
+        <v>34</v>
+      </c>
+      <c r="K30" t="s">
+        <v>62</v>
+      </c>
+      <c r="L30" t="s">
+        <v>36</v>
+      </c>
+      <c r="M30" t="s">
+        <v>63</v>
+      </c>
+      <c r="N30" t="s">
+        <v>38</v>
+      </c>
+      <c r="O30" t="s">
+        <v>39</v>
+      </c>
+      <c r="P30" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30"/>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30" t="s">
+        <v>41</v>
+      </c>
+      <c r="U30">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" t="s">
+        <v>56</v>
+      </c>
+      <c r="H31" t="s">
+        <v>57</v>
+      </c>
+      <c r="I31" t="s">
+        <v>58</v>
+      </c>
+      <c r="J31" t="s">
+        <v>34</v>
+      </c>
+      <c r="K31" t="s">
+        <v>64</v>
+      </c>
+      <c r="L31" t="s">
+        <v>36</v>
+      </c>
+      <c r="M31" t="s">
+        <v>65</v>
+      </c>
+      <c r="N31" t="s">
+        <v>38</v>
+      </c>
+      <c r="O31" t="s">
+        <v>39</v>
+      </c>
+      <c r="P31" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="R31"/>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31" t="s">
+        <v>41</v>
+      </c>
+      <c r="U31">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" t="s">
+        <v>56</v>
+      </c>
+      <c r="H32" t="s">
+        <v>57</v>
+      </c>
+      <c r="I32" t="s">
+        <v>58</v>
+      </c>
+      <c r="J32" t="s">
+        <v>34</v>
+      </c>
+      <c r="K32" t="s">
+        <v>66</v>
+      </c>
+      <c r="L32" t="s">
+        <v>36</v>
+      </c>
+      <c r="M32" t="s">
+        <v>67</v>
+      </c>
+      <c r="N32" t="s">
+        <v>38</v>
+      </c>
+      <c r="O32" t="s">
+        <v>39</v>
+      </c>
+      <c r="P32" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="R32"/>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32" t="s">
+        <v>41</v>
+      </c>
+      <c r="U32">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" t="s">
+        <v>69</v>
+      </c>
+      <c r="H33" t="s">
+        <v>70</v>
+      </c>
+      <c r="I33" t="s">
+        <v>58</v>
+      </c>
+      <c r="J33" t="s">
+        <v>34</v>
+      </c>
+      <c r="K33" t="s">
+        <v>71</v>
+      </c>
+      <c r="L33" t="s">
+        <v>36</v>
+      </c>
+      <c r="M33" t="s">
+        <v>72</v>
+      </c>
+      <c r="N33" t="s">
+        <v>38</v>
+      </c>
+      <c r="O33" t="s">
+        <v>73</v>
+      </c>
+      <c r="P33" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+      <c r="R33"/>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33" t="s">
+        <v>41</v>
+      </c>
+      <c r="U33">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" t="s">
+        <v>75</v>
+      </c>
+      <c r="H34" t="s">
+        <v>76</v>
+      </c>
+      <c r="I34" t="s">
+        <v>33</v>
+      </c>
+      <c r="J34" t="s">
+        <v>34</v>
+      </c>
+      <c r="K34" t="s">
+        <v>77</v>
+      </c>
+      <c r="L34" t="s">
+        <v>36</v>
+      </c>
+      <c r="M34" t="s">
+        <v>78</v>
+      </c>
+      <c r="N34" t="s">
+        <v>38</v>
+      </c>
+      <c r="O34" t="s">
+        <v>39</v>
+      </c>
+      <c r="P34" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q34">
+        <v>4</v>
+      </c>
+      <c r="R34"/>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34" t="s">
+        <v>41</v>
+      </c>
+      <c r="U34">
+        <v>8740</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" t="s">
+        <v>30</v>
+      </c>
+      <c r="G35" t="s">
+        <v>80</v>
+      </c>
+      <c r="H35" t="s">
+        <v>81</v>
+      </c>
+      <c r="I35" t="s">
+        <v>33</v>
+      </c>
+      <c r="J35" t="s">
+        <v>34</v>
+      </c>
+      <c r="K35" t="s">
+        <v>77</v>
+      </c>
+      <c r="L35" t="s">
+        <v>36</v>
+      </c>
+      <c r="M35" t="s">
+        <v>78</v>
+      </c>
+      <c r="N35" t="s">
+        <v>38</v>
+      </c>
+      <c r="O35" t="s">
+        <v>39</v>
+      </c>
+      <c r="P35" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q35">
+        <v>4</v>
+      </c>
+      <c r="R35"/>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35" t="s">
+        <v>41</v>
+      </c>
+      <c r="U35">
+        <v>8740</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G36" t="s">
+        <v>83</v>
+      </c>
+      <c r="H36" t="s">
+        <v>84</v>
+      </c>
+      <c r="I36" t="s">
+        <v>33</v>
+      </c>
+      <c r="J36" t="s">
+        <v>34</v>
+      </c>
+      <c r="K36" t="s">
+        <v>77</v>
+      </c>
+      <c r="L36" t="s">
+        <v>36</v>
+      </c>
+      <c r="M36" t="s">
+        <v>78</v>
+      </c>
+      <c r="N36" t="s">
+        <v>38</v>
+      </c>
+      <c r="O36" t="s">
+        <v>39</v>
+      </c>
+      <c r="P36" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q36">
+        <v>4</v>
+      </c>
+      <c r="R36"/>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36" t="s">
+        <v>41</v>
+      </c>
+      <c r="U36">
+        <v>8740</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" t="s">
+        <v>30</v>
+      </c>
+      <c r="G37" t="s">
+        <v>86</v>
+      </c>
+      <c r="H37" t="s">
+        <v>87</v>
+      </c>
+      <c r="I37" t="s">
+        <v>33</v>
+      </c>
+      <c r="J37" t="s">
+        <v>34</v>
+      </c>
+      <c r="K37" t="s">
+        <v>77</v>
+      </c>
+      <c r="L37" t="s">
+        <v>36</v>
+      </c>
+      <c r="M37" t="s">
+        <v>78</v>
+      </c>
+      <c r="N37" t="s">
+        <v>38</v>
+      </c>
+      <c r="O37" t="s">
+        <v>39</v>
+      </c>
+      <c r="P37" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q37">
+        <v>4</v>
+      </c>
+      <c r="R37"/>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37" t="s">
+        <v>41</v>
+      </c>
+      <c r="U37">
+        <v>8740</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" t="s">
+        <v>30</v>
+      </c>
+      <c r="G38" t="s">
+        <v>89</v>
+      </c>
+      <c r="H38" t="s">
+        <v>90</v>
+      </c>
+      <c r="I38" t="s">
+        <v>58</v>
+      </c>
+      <c r="J38" t="s">
+        <v>34</v>
+      </c>
+      <c r="K38" t="s">
+        <v>91</v>
+      </c>
+      <c r="L38" t="s">
+        <v>36</v>
+      </c>
+      <c r="M38" t="s">
+        <v>92</v>
+      </c>
+      <c r="N38" t="s">
+        <v>93</v>
+      </c>
+      <c r="O38" t="s">
+        <v>39</v>
+      </c>
+      <c r="P38" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q38">
+        <v>3</v>
+      </c>
+      <c r="R38"/>
+      <c r="S38">
         <v>6723</v>
       </c>
-      <c r="T21" t="s">
-        <v>40</v>
-      </c>
-      <c r="U21">
-        <v>2328</v>
+      <c r="T38" t="s">
+        <v>41</v>
+      </c>
+      <c r="U38">
+        <v>6555</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" t="s">
+        <v>30</v>
+      </c>
+      <c r="G39" t="s">
+        <v>95</v>
+      </c>
+      <c r="H39" t="s">
+        <v>87</v>
+      </c>
+      <c r="I39" t="s">
+        <v>33</v>
+      </c>
+      <c r="J39" t="s">
+        <v>34</v>
+      </c>
+      <c r="K39" t="s">
+        <v>96</v>
+      </c>
+      <c r="L39" t="s">
+        <v>36</v>
+      </c>
+      <c r="M39" t="s">
+        <v>97</v>
+      </c>
+      <c r="N39" t="s">
+        <v>38</v>
+      </c>
+      <c r="O39" t="s">
+        <v>39</v>
+      </c>
+      <c r="P39" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q39">
+        <v>5</v>
+      </c>
+      <c r="R39"/>
+      <c r="S39">
+        <v>6723</v>
+      </c>
+      <c r="T39" t="s">
+        <v>41</v>
+      </c>
+      <c r="U39">
+        <v>10925</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40" t="s">
+        <v>99</v>
+      </c>
+      <c r="H40" t="s">
+        <v>87</v>
+      </c>
+      <c r="I40" t="s">
+        <v>58</v>
+      </c>
+      <c r="J40" t="s">
+        <v>34</v>
+      </c>
+      <c r="K40" t="s">
+        <v>100</v>
+      </c>
+      <c r="L40" t="s">
+        <v>36</v>
+      </c>
+      <c r="M40" t="s">
+        <v>101</v>
+      </c>
+      <c r="N40" t="s">
+        <v>93</v>
+      </c>
+      <c r="O40" t="s">
+        <v>73</v>
+      </c>
+      <c r="P40" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q40">
+        <v>20</v>
+      </c>
+      <c r="R40"/>
+      <c r="S40">
+        <v>6723</v>
+      </c>
+      <c r="T40" t="s">
+        <v>41</v>
+      </c>
+      <c r="U40">
+        <v>43700</v>
       </c>
     </row>
   </sheetData>
